--- a/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en Andalucia</t>
+          <t>Percepción de olores en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en C.Valenciana</t>
+          <t>Percepción de olores en C.Valenciana (tasa de respuesta: 93,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>182243</t>
+          <t>184242</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>204054</t>
+          <t>204119</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>331158</t>
+          <t>330208</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>353571</t>
+          <t>352909</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>523986</t>
+          <t>521453</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>553248</t>
+          <t>551991</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,15%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12442</t>
+          <t>12651</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27384</t>
+          <t>26277</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31927</t>
+          <t>33363</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>54801</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>48681</t>
+          <t>48861</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>72660</t>
+          <t>73903</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8217</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24859</t>
+          <t>23861</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8437</t>
+          <t>8512</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19217</t>
+          <t>20072</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19212</t>
+          <t>20717</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>37919</t>
+          <t>40048</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1258036</t>
+          <t>1255455</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1346636</t>
+          <t>1343081</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1217722</t>
+          <t>1215635</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1304533</t>
+          <t>1310834</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2490162</t>
+          <t>2492639</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2617983</t>
+          <t>2621891</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>93,78%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52404</t>
+          <t>55547</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>127099</t>
+          <t>130559</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64824</t>
+          <t>59244</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>135081</t>
+          <t>137977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>146153</t>
+          <t>142149</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>252888</t>
+          <t>246449</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,81%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9156</t>
+          <t>9133</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35868</t>
+          <t>35280</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16288</t>
+          <t>15735</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39831</t>
+          <t>41552</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>32454</t>
+          <t>31145</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>67446</t>
+          <t>67731</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>398868</t>
+          <t>400076</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>426735</t>
+          <t>427333</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>370821</t>
+          <t>370783</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>396950</t>
+          <t>396690</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>778344</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>817262</t>
+          <t>816873</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,56%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24632</t>
+          <t>23483</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47866</t>
+          <t>46471</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33448</t>
+          <t>32942</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56354</t>
+          <t>55998</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>63102</t>
+          <t>62992</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>94992</t>
+          <t>94301</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22765</t>
+          <t>21311</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8071</t>
+          <t>7716</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21926</t>
+          <t>21084</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>15364</t>
+          <t>16080</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35830</t>
+          <t>36478</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1861987</t>
+          <t>1863831</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1969828</t>
+          <t>1970446</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1943062</t>
+          <t>1939025</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2055819</t>
+          <t>2043003</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3823266</t>
+          <t>3822841</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3986443</t>
+          <t>3968832</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>91,78%</t>
         </is>
       </c>
     </row>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95759</t>
+          <t>97749</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>183459</t>
+          <t>181063</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>131922</t>
+          <t>145186</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>223908</t>
+          <t>227548</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>266145</t>
+          <t>272252</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>394637</t>
+          <t>389988</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28317</t>
+          <t>26958</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65102</t>
+          <t>63988</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>38104</t>
+          <t>38238</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>69734</t>
+          <t>68800</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>74006</t>
+          <t>75671</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>125528</t>
+          <t>124417</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>194594</t>
+          <t>215849</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>184242</t>
+          <t>204127</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>204119</t>
+          <t>226589</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>343155</t>
+          <t>372842</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>330208</t>
+          <t>358022</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>352909</t>
+          <t>383133</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>537748</t>
+          <t>588692</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>521453</t>
+          <t>570203</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>551991</t>
+          <t>603967</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>85,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>87,64%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18383</t>
+          <t>22808</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12651</t>
+          <t>15521</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26277</t>
+          <t>32757</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41706</t>
+          <t>46320</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33363</t>
+          <t>37071</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54801</t>
+          <t>61307</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>60088</t>
+          <t>69128</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>48861</t>
+          <t>56502</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>73903</t>
+          <t>84523</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>12,26%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15298</t>
+          <t>16637</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9191</t>
+          <t>9845</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23861</t>
+          <t>26065</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13057</t>
+          <t>14682</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8512</t>
+          <t>9810</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20072</t>
+          <t>22404</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,22 +1030,22 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>28355</t>
+          <t>31319</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20717</t>
+          <t>22797</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>40048</t>
+          <t>43595</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>626191</t>
+          <t>689138</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>626191</t>
+          <t>689138</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>626191</t>
+          <t>689138</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1295282</t>
+          <t>1161733</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1255455</t>
+          <t>1133930</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1343081</t>
+          <t>1184655</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1254224</t>
+          <t>1113065</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1215635</t>
+          <t>1086770</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1310834</t>
+          <t>1134229</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2549506</t>
+          <t>2274799</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2492639</t>
+          <t>2236727</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2621891</t>
+          <t>2307367</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>90,16%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94390</t>
+          <t>104481</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55547</t>
+          <t>82594</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>130559</t>
+          <t>131451</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>104592</t>
+          <t>128526</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59244</t>
+          <t>108545</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>137977</t>
+          <t>151517</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>198983</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>142149</t>
+          <t>205229</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>246449</t>
+          <t>268562</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19721</t>
+          <t>21473</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9133</t>
+          <t>12146</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35280</t>
+          <t>35753</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,67 +1451,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27673</t>
+          <t>29833</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15735</t>
+          <t>20914</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41552</t>
+          <t>42536</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>51306</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>38008</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>69291</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
           <t>2,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>47394</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>31145</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>67731</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>414285</t>
+          <t>457584</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>400076</t>
+          <t>441424</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>427333</t>
+          <t>472237</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>385751</t>
+          <t>427691</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>370783</t>
+          <t>413200</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>396690</t>
+          <t>441011</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>800036</t>
+          <t>885275</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>778344</t>
+          <t>861207</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>816873</t>
+          <t>903573</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>89,94%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34981</t>
+          <t>40960</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23483</t>
+          <t>27931</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46471</t>
+          <t>54017</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43244</t>
+          <t>51600</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32942</t>
+          <t>39910</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55998</t>
+          <t>65358</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>78225</t>
+          <t>92560</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>62992</t>
+          <t>74764</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>94301</t>
+          <t>110058</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10535</t>
+          <t>11335</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5184</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21311</t>
+          <t>23997</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13213</t>
+          <t>15414</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>9338</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21084</t>
+          <t>23781</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>23748</t>
+          <t>26749</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>16080</t>
+          <t>18370</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>36478</t>
+          <t>40976</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>442208</t>
+          <t>494704</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>442208</t>
+          <t>494704</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>442208</t>
+          <t>494704</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>902009</t>
+          <t>1004584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>902009</t>
+          <t>1004584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>902009</t>
+          <t>1004584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1904160</t>
+          <t>1835166</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1863831</t>
+          <t>1804789</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1970446</t>
+          <t>1864188</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1983129</t>
+          <t>1913600</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1939025</t>
+          <t>1881988</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2043003</t>
+          <t>1940447</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3887289</t>
+          <t>3748766</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3822841</t>
+          <t>3704897</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3968832</t>
+          <t>3788882</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>89,09%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>147754</t>
+          <t>168249</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97749</t>
+          <t>142932</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>181063</t>
+          <t>195643</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>189542</t>
+          <t>226446</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>145186</t>
+          <t>203608</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>227548</t>
+          <t>257947</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>337296</t>
+          <t>394695</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>272252</t>
+          <t>355010</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>389988</t>
+          <t>433563</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45554</t>
+          <t>49445</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26958</t>
+          <t>35500</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63988</t>
+          <t>67272</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>53943</t>
+          <t>59929</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>47302</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>68800</t>
+          <t>75314</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>99497</t>
+          <t>109373</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>75671</t>
+          <t>89349</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>124417</t>
+          <t>130135</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2226614</t>
+          <t>2199974</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2226614</t>
+          <t>2199974</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2226614</t>
+          <t>2199974</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4324082</t>
+          <t>4252834</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4324082</t>
+          <t>4252834</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4324082</t>
+          <t>4252834</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
